--- a/Documentacion_Diagramas/Armado de Bases.xlsx
+++ b/Documentacion_Diagramas/Armado de Bases.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisfage\Documentacion_Diagramas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sisfage\Documentacion_Diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7206D3-CC9C-4EDF-AAD6-ECA12EA7BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0D8A33-66C6-48C2-AC5D-1F75973F741C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{8BE4F9CE-A1E5-40DB-8EB2-BA5F8623D37E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8BE4F9CE-A1E5-40DB-8EB2-BA5F8623D37E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rto Ing Proveedor" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
-  <si>
-    <t>Nombre de Bases</t>
-  </si>
-  <si>
-    <t>RtoProvEnc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id_RtoProvEnc</t>
   </si>
@@ -72,9 +66,6 @@
     <t>Nro_linea</t>
   </si>
   <si>
-    <t>RtoProvLin</t>
-  </si>
-  <si>
     <t>id_RtoProvLin</t>
   </si>
   <si>
@@ -106,24 +97,6 @@
   </si>
   <si>
     <t>Fecha_act</t>
-  </si>
-  <si>
-    <t>Nro Rto</t>
-  </si>
-  <si>
-    <t>Su Pedido</t>
-  </si>
-  <si>
-    <t>Porveedor</t>
-  </si>
-  <si>
-    <t>Nom Proveedor</t>
-  </si>
-  <si>
-    <t>Fec_entrega</t>
-  </si>
-  <si>
-    <t>Stock</t>
   </si>
   <si>
     <t>id_stock</t>
@@ -167,6 +140,7 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,13 +164,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,179 +501,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349638D9-2962-40E4-9E87-68DC065B7726}">
-  <dimension ref="B3:I23"/>
+  <dimension ref="B5:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
